--- a/Instances/02_01_OneResourcePerLevelC=1_NonStationary.xlsx
+++ b/Instances/02_01_OneResourcePerLevelC=1_NonStationary.xlsx
@@ -1218,7 +1218,7 @@
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>151.5975384615385</v>
+        <v>253.6504615384616</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>50.63624076923077</v>
+        <v>43.37462538461538</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>33.40103846153847</v>
+        <v>28.43023076923077</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>42.73958</v>
+        <v>106.7338676923077</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>48.3871376923077</v>
+        <v>114.4088630769231</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11455</v>
+        <v>10116</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>50.63624076923077</v>
+        <v>43.37462538461538</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>6456</v>
+        <v>9555</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>33.40103846153847</v>
+        <v>28.43023076923077</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>14640</v>
+        <v>25694</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>85.47916000000001</v>
+        <v>213.4677353846154</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>5.647557692307693</v>
+        <v>7.674995384615385</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>9149</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>44.07076384615385</v>
+        <v>37.75068692307692</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4397</v>
+        <v>7390</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>29.06793076923077</v>
+        <v>24.74198461538462</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>6612</v>
+        <v>17102</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>37.18598000000001</v>
+        <v>92.86482153846156</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>10137</v>
+        <v>18721</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>42.09969153846155</v>
+        <v>99.54252461538464</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11383</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>94</v>
+        <v>3706</v>
       </c>
       <c r="I2" t="n">
-        <v>7065</v>
+        <v>11209</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9996</v>
       </c>
       <c r="H3" t="n">
-        <v>6286</v>
+        <v>5757</v>
       </c>
       <c r="I3" t="n">
-        <v>7441</v>
+        <v>14243</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8763</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3219</v>
+        <v>10573</v>
       </c>
       <c r="J4" t="n">
-        <v>1585</v>
+        <v>1591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1793,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>4304</v>
+        <v>7233</v>
       </c>
       <c r="I5" t="n">
-        <v>3267</v>
+        <v>6213</v>
       </c>
       <c r="J5" t="n">
-        <v>1872</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2441</v>
+        <v>6140</v>
       </c>
       <c r="H6" t="n">
-        <v>1963</v>
+        <v>385</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1929</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1808</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5283</v>
+        <v>2573</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="I7" t="n">
-        <v>1383</v>
+        <v>6443</v>
       </c>
       <c r="J7" t="n">
-        <v>518</v>
+        <v>131</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>8054</v>
       </c>
       <c r="H8" t="n">
-        <v>3666</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7707</v>
+        <v>16347</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1969,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7462</v>
+        <v>3700</v>
       </c>
       <c r="H9" t="n">
-        <v>7158</v>
+        <v>1999</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>8167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>284.5749999999999</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.35</v>
+        <v>92.64999999999998</v>
       </c>
       <c r="I2" t="n">
-        <v>176.625</v>
+        <v>280.225</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>474.8099999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>298.5849999999999</v>
+        <v>273.4574999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>353.4474999999999</v>
+        <v>676.5424999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>39.75749999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.6932499999998</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>218.0872499999999</v>
+        <v>716.3207499999997</v>
       </c>
       <c r="J4" t="n">
-        <v>107.38375</v>
+        <v>107.79025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>19.860225</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>370.0364</v>
+        <v>621.857175</v>
       </c>
       <c r="I5" t="n">
-        <v>280.880325</v>
+        <v>534.1626749999999</v>
       </c>
       <c r="J5" t="n">
-        <v>160.9452</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2249,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>249.9034775</v>
+        <v>628.5978499999999</v>
       </c>
       <c r="H6" t="n">
-        <v>200.9670325</v>
+        <v>39.41533749999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>197.4861975</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>185.09852</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>618.8492992499999</v>
+        <v>301.40057675</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>105.1914955</v>
       </c>
       <c r="I7" t="n">
-        <v>162.00427425</v>
+        <v>754.73140925</v>
       </c>
       <c r="J7" t="n">
-        <v>60.67839049999999</v>
+        <v>15.34530725</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2337,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1050.44919185</v>
       </c>
       <c r="H8" t="n">
-        <v>478.1408911499999</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1005.191447925</v>
+        <v>2132.070143924999</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>134.990677125</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1062.463419745</v>
+        <v>526.8178307499999</v>
       </c>
       <c r="H9" t="n">
-        <v>1019.178927705</v>
+        <v>284.6240118024999</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1162.8435739825</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29611.25</v>
+        <v>56557.125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>73222.875</v>
+        <v>56564.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35149.5</v>
+        <v>101858.875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>61586.5</v>
+        <v>25761.375</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2601,7 +2601,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
